--- a/data/evaluation/evaluation_South_Autumn_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Tomatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1691.56137056843</v>
+        <v>1705.070427524545</v>
       </c>
       <c r="C3" t="n">
-        <v>4977764.302402932</v>
+        <v>5036776.971654162</v>
       </c>
       <c r="D3" t="n">
-        <v>2231.090384185036</v>
+        <v>2244.276491801792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2550848555057358</v>
+        <v>0.2462536958983893</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1650.101352914433</v>
+        <v>1593.061154247894</v>
       </c>
       <c r="C4" t="n">
-        <v>4665516.725795361</v>
+        <v>4419961.584055304</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.980723477726</v>
+        <v>2102.370467842265</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3018122484709531</v>
+        <v>0.3385592161412191</v>
       </c>
     </row>
     <row r="5">
